--- a/docs/testing/2021-11-27-01/T000004文档保存与打开.xlsx
+++ b/docs/testing/2021-11-27-01/T000004文档保存与打开.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C24155-0563-4FB8-8129-DCF747EADA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66A10A-BC2A-49BB-A372-FDFFDF365943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
+    <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>编号</t>
   </si>
@@ -203,6 +203,42 @@
   </si>
   <si>
     <t>T00004</t>
+  </si>
+  <si>
+    <t>正常保存</t>
+  </si>
+  <si>
+    <t>正常打开</t>
+  </si>
+  <si>
+    <t>保存一份只有直线的文档，有水平和垂直直线，用以验证图元有效性函数是否正常，名为【存取测试.lc】</t>
+  </si>
+  <si>
+    <t>打开刚刚保存的文档【存取测试.lc】</t>
+  </si>
+  <si>
+    <t>观察【文件】菜单下的【最近的文件】列表</t>
+  </si>
+  <si>
+    <t>【存取测试.lc】排在第一位</t>
+  </si>
+  <si>
+    <t>双击【图层】面板中的图层项</t>
+  </si>
+  <si>
+    <t>打开图层面板</t>
+  </si>
+  <si>
+    <t>调整各参数后点击【确定】按钮</t>
+  </si>
+  <si>
+    <t>保存该文档，并关闭该文档</t>
+  </si>
+  <si>
+    <t>重新打开该文档，观察修改的数据是否一致</t>
+  </si>
+  <si>
+    <t>一致</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A765373D-FC3F-48C6-B9C9-EA30C0CFDB5B}">
   <dimension ref="A2:AO42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:AO3"/>
     </sheetView>
   </sheetViews>
@@ -2919,7 +2955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO114"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AA57" sqref="AA57:AL58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4741,7 +4779,9 @@
         <v>5</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -4753,7 +4793,9 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="10"/>
+      <c r="O45" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -4777,7 +4819,9 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="11"/>
       <c r="AL45" s="12"/>
-      <c r="AM45" s="16"/>
+      <c r="AM45" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
     </row>
@@ -4829,7 +4873,9 @@
         <v>6</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -4841,7 +4887,9 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="10"/>
+      <c r="O47" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
@@ -4865,7 +4913,9 @@
       <c r="AJ47" s="11"/>
       <c r="AK47" s="11"/>
       <c r="AL47" s="12"/>
-      <c r="AM47" s="16"/>
+      <c r="AM47" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN47" s="17"/>
       <c r="AO47" s="17"/>
     </row>
@@ -4917,7 +4967,9 @@
         <v>7</v>
       </c>
       <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -4929,7 +4981,9 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="12"/>
-      <c r="O49" s="10"/>
+      <c r="O49" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -4953,7 +5007,9 @@
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11"/>
       <c r="AL49" s="12"/>
-      <c r="AM49" s="16"/>
+      <c r="AM49" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN49" s="17"/>
       <c r="AO49" s="17"/>
     </row>
@@ -5005,7 +5061,9 @@
         <v>8</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -5017,7 +5075,9 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="12"/>
-      <c r="O51" s="10"/>
+      <c r="O51" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -5041,7 +5101,9 @@
       <c r="AJ51" s="11"/>
       <c r="AK51" s="11"/>
       <c r="AL51" s="12"/>
-      <c r="AM51" s="16"/>
+      <c r="AM51" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN51" s="17"/>
       <c r="AO51" s="17"/>
     </row>
@@ -5093,7 +5155,9 @@
         <v>9</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -5129,7 +5193,9 @@
       <c r="AJ53" s="11"/>
       <c r="AK53" s="11"/>
       <c r="AL53" s="12"/>
-      <c r="AM53" s="16"/>
+      <c r="AM53" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
     </row>
@@ -5181,7 +5247,9 @@
         <v>10</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -5217,7 +5285,9 @@
       <c r="AJ55" s="11"/>
       <c r="AK55" s="11"/>
       <c r="AL55" s="12"/>
-      <c r="AM55" s="16"/>
+      <c r="AM55" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
     </row>
@@ -5269,7 +5339,9 @@
         <v>11</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -5281,7 +5353,9 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="12"/>
-      <c r="O57" s="10"/>
+      <c r="O57" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -5305,7 +5379,9 @@
       <c r="AJ57" s="11"/>
       <c r="AK57" s="11"/>
       <c r="AL57" s="12"/>
-      <c r="AM57" s="16"/>
+      <c r="AM57" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN57" s="17"/>
       <c r="AO57" s="17"/>
     </row>

--- a/docs/testing/2021-11-27-01/T000004文档保存与打开.xlsx
+++ b/docs/testing/2021-11-27-01/T000004文档保存与打开.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaserController\LaserController\docs\testing\2021-11-27-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E66A10A-BC2A-49BB-A372-FDFFDF365943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F72AE7-0B6D-4359-9A5D-A3814C5DDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5385" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{20DA2BEF-9469-4F7D-9F61-3651835C6068}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>编号</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>当前选项设备原点为右上角</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>加工幅面为280mm x 190mm</t>
@@ -598,7 +595,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1093,7 +1125,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -1108,7 +1140,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -1138,13 +1170,13 @@
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -1237,7 +1269,7 @@
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
@@ -1282,7 +1314,7 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1326,7 +1358,7 @@
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -1852,7 +1884,7 @@
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -1899,7 +1931,7 @@
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -1946,7 +1978,7 @@
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -1993,7 +2025,7 @@
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -2338,7 +2370,7 @@
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
@@ -2899,27 +2931,27 @@
     <mergeCell ref="AM39:AO40"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:AO8">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Suspend">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33:AO42">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM33)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2955,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420FCF0-6D70-4DA9-8C04-828EBD1DDF9A}">
   <dimension ref="A2:AO114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AA57" sqref="AA57:AL58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53:AL54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2972,7 +3004,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -2987,7 +3019,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -3017,13 +3049,13 @@
     </row>
     <row r="3" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -3116,7 +3148,7 @@
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
@@ -3161,7 +3193,7 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -3205,7 +3237,7 @@
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -3313,7 +3345,7 @@
     <row r="10" spans="1:41" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -3361,7 +3393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -3709,7 +3741,7 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -3895,7 +3927,7 @@
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -3942,7 +3974,7 @@
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -3989,7 +4021,7 @@
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -4036,7 +4068,7 @@
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -4128,7 +4160,7 @@
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
@@ -4383,7 +4415,7 @@
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
@@ -4408,7 +4440,7 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -4445,7 +4477,9 @@
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
       <c r="AL37" s="12"/>
-      <c r="AM37" s="16"/>
+      <c r="AM37" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
     </row>
@@ -4498,7 +4532,7 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -4512,7 +4546,7 @@
       <c r="M39" s="11"/>
       <c r="N39" s="12"/>
       <c r="O39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -4592,7 +4626,7 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -4606,7 +4640,7 @@
       <c r="M41" s="11"/>
       <c r="N41" s="12"/>
       <c r="O41" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -4686,7 +4720,7 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -4700,7 +4734,7 @@
       <c r="M43" s="11"/>
       <c r="N43" s="12"/>
       <c r="O43" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
@@ -4780,7 +4814,7 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -4794,7 +4828,7 @@
       <c r="M45" s="11"/>
       <c r="N45" s="12"/>
       <c r="O45" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -4874,7 +4908,7 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -4888,7 +4922,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="12"/>
       <c r="O47" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -4968,7 +5002,7 @@
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -4982,7 +5016,7 @@
       <c r="M49" s="11"/>
       <c r="N49" s="12"/>
       <c r="O49" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
@@ -5062,7 +5096,7 @@
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -5076,7 +5110,7 @@
       <c r="M51" s="11"/>
       <c r="N51" s="12"/>
       <c r="O51" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
@@ -5156,7 +5190,7 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -5248,7 +5282,7 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -5340,7 +5374,7 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -5354,7 +5388,7 @@
       <c r="M57" s="11"/>
       <c r="N57" s="12"/>
       <c r="O57" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
@@ -8158,46 +8192,46 @@
     <mergeCell ref="AA43:AL44"/>
     <mergeCell ref="AM43:AO44"/>
   </mergeCells>
-  <conditionalFormatting sqref="AM37:AO38">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="未执行">
-      <formula>NOT(ISERROR(SEARCH("未执行",AM37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="挂起">
-      <formula>NOT(ISERROR(SEARCH("挂起",AM37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",AM37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="18" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",AM37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7:AO8">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Suspend">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="Suspend">
       <formula>NOT(ISERROR(SEARCH("Suspend",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39:AO114">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="未执行">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="未执行">
       <formula>NOT(ISERROR(SEARCH("未执行",AM39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="挂起">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="挂起">
       <formula>NOT(ISERROR(SEARCH("挂起",AM39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",AM39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",AM39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <conditionalFormatting sqref="AM37:AO38">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="未执行">
+      <formula>NOT(ISERROR(SEARCH("未执行",AM37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="挂起">
+      <formula>NOT(ISERROR(SEARCH("挂起",AM37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",AM37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",AM37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AO6" xr:uid="{ECEF2431-72BF-4132-958B-B168D5AFA87D}">
       <formula1>"功能验证,修改验证,发布验证"</formula1>
     </dataValidation>
@@ -8213,14 +8247,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:AE5" xr:uid="{AC71F289-E99A-4BCB-B638-B8C816B1C000}">
       <formula1>"UI,图元操作,加工,Demo,下位机,通信连接,安全,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM39:AO114" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AO114" xr:uid="{FBD52FAE-8FC5-4A44-A57A-29B6EABDCA27}">
       <formula1>"Pass,Fail,非执行,挂起"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:AO8" xr:uid="{50BC0DCA-D6B6-4DD1-AAFE-A220C75C0306}">
       <formula1>"Pass,Fail,Suspend"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37:AO38" xr:uid="{ED1A11F7-52FD-49FE-8AFD-C898C547501E}">
-      <formula1>"Pass,Fail,未执行,挂起"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
